--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N2">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q2">
-        <v>0.4366689786246666</v>
+        <v>1.423278821570667</v>
       </c>
       <c r="R2">
-        <v>3.930020807621999</v>
+        <v>12.809509394136</v>
       </c>
       <c r="S2">
-        <v>0.1423564824833048</v>
+        <v>0.3199172576230066</v>
       </c>
       <c r="T2">
-        <v>0.1423564824833048</v>
+        <v>0.3199172576230066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>22.867725</v>
       </c>
       <c r="O3">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P3">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q3">
         <v>0.150522988525</v>
@@ -632,10 +632,10 @@
         <v>1.354706896725</v>
       </c>
       <c r="S3">
-        <v>0.04907131998884663</v>
+        <v>0.03383377941715995</v>
       </c>
       <c r="T3">
-        <v>0.04907131998884663</v>
+        <v>0.03383377941715994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>243.606445</v>
       </c>
       <c r="O4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q4">
-        <v>1.603498823138333</v>
+        <v>1.603498823138334</v>
       </c>
       <c r="R4">
         <v>14.431489408245</v>
       </c>
       <c r="S4">
-        <v>0.522749412717722</v>
+        <v>0.360426178149707</v>
       </c>
       <c r="T4">
-        <v>0.522749412717722</v>
+        <v>0.3604261781497069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N5">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q5">
-        <v>0.1747604668086667</v>
+        <v>0.5696142465626667</v>
       </c>
       <c r="R5">
-        <v>1.572844201278</v>
+        <v>5.126528219064</v>
       </c>
       <c r="S5">
-        <v>0.05697287086978062</v>
+        <v>0.1280349464219689</v>
       </c>
       <c r="T5">
-        <v>0.05697287086978062</v>
+        <v>0.128034946421969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>22.867725</v>
       </c>
       <c r="O6">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P6">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q6">
         <v>0.06024121022500001</v>
@@ -818,10 +818,10 @@
         <v>0.542170892025</v>
       </c>
       <c r="S6">
-        <v>0.01963896500085355</v>
+        <v>0.01354070789151846</v>
       </c>
       <c r="T6">
-        <v>0.01963896500085355</v>
+        <v>0.01354070789151846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>243.606445</v>
       </c>
       <c r="O7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q7">
         <v>0.6417405782783334</v>
@@ -880,10 +880,10 @@
         <v>5.775665204505001</v>
       </c>
       <c r="S7">
-        <v>0.2092109489394925</v>
+        <v>0.1442471304966392</v>
       </c>
       <c r="T7">
-        <v>0.2092109489394925</v>
+        <v>0.1442471304966392</v>
       </c>
     </row>
   </sheetData>
